--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H2">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J2">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N2">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O2">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P2">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q2">
-        <v>9.034657372241334</v>
+        <v>31.12033336118934</v>
       </c>
       <c r="R2">
-        <v>81.31191635017201</v>
+        <v>280.083000250704</v>
       </c>
       <c r="S2">
-        <v>0.0004732108615402071</v>
+        <v>0.0004669189951200123</v>
       </c>
       <c r="T2">
-        <v>0.000473210861540207</v>
+        <v>0.0004669189951200123</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H3">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J3">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>41.497732</v>
       </c>
       <c r="O3">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P3">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q3">
-        <v>3.885395760287111</v>
+        <v>12.54848534690267</v>
       </c>
       <c r="R3">
-        <v>34.968561842584</v>
+        <v>112.936368122124</v>
       </c>
       <c r="S3">
-        <v>0.0002035064971914929</v>
+        <v>0.0001882732456767639</v>
       </c>
       <c r="T3">
-        <v>0.0002035064971914929</v>
+        <v>0.0001882732456767639</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H4">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J4">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N4">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O4">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P4">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q4">
-        <v>3.583996816695334</v>
+        <v>23.12205108043934</v>
       </c>
       <c r="R4">
-        <v>32.25597135025801</v>
+        <v>208.098459723954</v>
       </c>
       <c r="S4">
-        <v>0.0001877200375740442</v>
+        <v>0.0003469154629640423</v>
       </c>
       <c r="T4">
-        <v>0.0001877200375740442</v>
+        <v>0.0003469154629640424</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H5">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I5">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J5">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N5">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O5">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P5">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q5">
-        <v>1.370488436301778</v>
+        <v>3.112175701174</v>
       </c>
       <c r="R5">
-        <v>12.334395926716</v>
+        <v>28.009581310566</v>
       </c>
       <c r="S5">
-        <v>7.178246910235258E-05</v>
+        <v>4.669403550931462E-05</v>
       </c>
       <c r="T5">
-        <v>7.178246910235257E-05</v>
+        <v>4.669403550931464E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H6">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I6">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J6">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N6">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O6">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P6">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q6">
-        <v>2.191993066064</v>
+        <v>6.887530344835667</v>
       </c>
       <c r="R6">
-        <v>19.727937594576</v>
+        <v>61.987773103521</v>
       </c>
       <c r="S6">
-        <v>0.0001148106546319395</v>
+        <v>0.0001033381844000387</v>
       </c>
       <c r="T6">
-        <v>0.0001148106546319394</v>
+        <v>0.0001033381844000388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2808873333333333</v>
+        <v>0.907169</v>
       </c>
       <c r="H7">
-        <v>0.842662</v>
+        <v>2.721507</v>
       </c>
       <c r="I7">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="J7">
-        <v>0.001177722312619665</v>
+        <v>0.001369063862079057</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N7">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O7">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P7">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q7">
-        <v>2.418830654280666</v>
+        <v>14.45806520587467</v>
       </c>
       <c r="R7">
-        <v>21.769475888526</v>
+        <v>130.122586852872</v>
       </c>
       <c r="S7">
-        <v>0.0001266917925796292</v>
+        <v>0.0002169239384088852</v>
       </c>
       <c r="T7">
-        <v>0.0001266917925796292</v>
+        <v>0.0002169239384088853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>5.647565</v>
       </c>
       <c r="I8">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J8">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N8">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O8">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P8">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q8">
-        <v>60.55074841687668</v>
+        <v>64.57969995263112</v>
       </c>
       <c r="R8">
-        <v>544.9567357518902</v>
+        <v>581.2172995736801</v>
       </c>
       <c r="S8">
-        <v>0.003171484057966681</v>
+        <v>0.0009689320566417621</v>
       </c>
       <c r="T8">
-        <v>0.003171484057966681</v>
+        <v>0.0009689320566417623</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>5.647565</v>
       </c>
       <c r="I9">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J9">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>41.497732</v>
       </c>
       <c r="O9">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P9">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q9">
         <v>26.04012653584222</v>
@@ -1013,10 +1013,10 @@
         <v>234.36113882258</v>
       </c>
       <c r="S9">
-        <v>0.001363911237021811</v>
+        <v>0.0003906972837918451</v>
       </c>
       <c r="T9">
-        <v>0.001363911237021811</v>
+        <v>0.0003906972837918452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>5.647565</v>
       </c>
       <c r="I10">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J10">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N10">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O10">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P10">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q10">
-        <v>24.02013497948167</v>
+        <v>47.98197704804778</v>
       </c>
       <c r="R10">
-        <v>216.181214815335</v>
+        <v>431.8377934324301</v>
       </c>
       <c r="S10">
-        <v>0.001258109555197525</v>
+        <v>0.0007199054151227688</v>
       </c>
       <c r="T10">
-        <v>0.001258109555197525</v>
+        <v>0.0007199054151227691</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>5.647565</v>
       </c>
       <c r="I11">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J11">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N11">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O11">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P11">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q11">
-        <v>9.185085509685557</v>
+        <v>6.458265425663333</v>
       </c>
       <c r="R11">
-        <v>82.66576958717</v>
+        <v>58.12438883097001</v>
       </c>
       <c r="S11">
-        <v>0.0004810898795911384</v>
+        <v>9.68976382023498E-05</v>
       </c>
       <c r="T11">
-        <v>0.0004810898795911383</v>
+        <v>9.689763820234986E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>5.647565</v>
       </c>
       <c r="I12">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J12">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N12">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O12">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P12">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q12">
-        <v>14.69085270268</v>
+        <v>14.29273388307722</v>
       </c>
       <c r="R12">
-        <v>132.21767432412</v>
+        <v>128.634604947695</v>
       </c>
       <c r="S12">
-        <v>0.0007694670398409199</v>
+        <v>0.0002144433629533948</v>
       </c>
       <c r="T12">
-        <v>0.0007694670398409198</v>
+        <v>0.0002144433629533949</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>5.647565</v>
       </c>
       <c r="I13">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="J13">
-        <v>0.007893156820255192</v>
+        <v>0.002841027838709403</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N13">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O13">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P13">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q13">
-        <v>16.21113013763833</v>
+        <v>30.00281205391555</v>
       </c>
       <c r="R13">
-        <v>145.900171238745</v>
+        <v>270.02530848524</v>
       </c>
       <c r="S13">
-        <v>0.0008490950506371162</v>
+        <v>0.0004501520819972816</v>
       </c>
       <c r="T13">
-        <v>0.0008490950506371162</v>
+        <v>0.0004501520819972817</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H14">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I14">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J14">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N14">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O14">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P14">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q14">
-        <v>3339.779792904486</v>
+        <v>2890.647810523139</v>
       </c>
       <c r="R14">
-        <v>30058.01813614038</v>
+        <v>26015.83029470824</v>
       </c>
       <c r="S14">
-        <v>0.1749286119040542</v>
+        <v>0.04337030568633168</v>
       </c>
       <c r="T14">
-        <v>0.1749286119040542</v>
+        <v>0.04337030568633168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H15">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I15">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J15">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>41.497732</v>
       </c>
       <c r="O15">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P15">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q15">
-        <v>1436.287588228092</v>
+        <v>1165.580434901216</v>
       </c>
       <c r="R15">
-        <v>12926.58829405283</v>
+        <v>10490.22391411094</v>
       </c>
       <c r="S15">
-        <v>0.07522885030849914</v>
+        <v>0.01748797607914902</v>
       </c>
       <c r="T15">
-        <v>0.07522885030849914</v>
+        <v>0.01748797607914903</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H16">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I16">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J16">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N16">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O16">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P16">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q16">
-        <v>1324.871509019229</v>
+        <v>2147.718199376055</v>
       </c>
       <c r="R16">
-        <v>11923.84358117306</v>
+        <v>19329.46379438449</v>
       </c>
       <c r="S16">
-        <v>0.06939317811202511</v>
+        <v>0.03222364014597127</v>
       </c>
       <c r="T16">
-        <v>0.06939317811202511</v>
+        <v>0.03222364014597127</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H17">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I17">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J17">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N17">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O17">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P17">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q17">
-        <v>506.619055641558</v>
+        <v>289.0780047935233</v>
       </c>
       <c r="R17">
-        <v>4559.571500774022</v>
+        <v>2601.70204314171</v>
       </c>
       <c r="S17">
-        <v>0.02653533276529259</v>
+        <v>0.004337228973190266</v>
       </c>
       <c r="T17">
-        <v>0.02653533276529259</v>
+        <v>0.004337228973190267</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H18">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I18">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J18">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N18">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O18">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P18">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q18">
-        <v>810.299034772488</v>
+        <v>639.7561452873207</v>
       </c>
       <c r="R18">
-        <v>7292.691312952392</v>
+        <v>5757.805307585885</v>
       </c>
       <c r="S18">
-        <v>0.04244126684073269</v>
+        <v>0.009598685625004892</v>
       </c>
       <c r="T18">
-        <v>0.04244126684073269</v>
+        <v>0.009598685625004894</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>103.833693</v>
+        <v>84.26343166666668</v>
       </c>
       <c r="H19">
-        <v>311.501079</v>
+        <v>252.790295</v>
       </c>
       <c r="I19">
-        <v>0.435360525505364</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="J19">
-        <v>0.4353605255053641</v>
+        <v>0.1271670650006795</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N19">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O19">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P19">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q19">
-        <v>894.1525293969629</v>
+        <v>1342.953947398369</v>
       </c>
       <c r="R19">
-        <v>8047.372764572667</v>
+        <v>12086.58552658532</v>
       </c>
       <c r="S19">
-        <v>0.04683328557476032</v>
+        <v>0.02014922849103233</v>
       </c>
       <c r="T19">
-        <v>0.04683328557476033</v>
+        <v>0.02014922849103233</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H20">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I20">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J20">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N20">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O20">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P20">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q20">
-        <v>4.455122152452668</v>
+        <v>8.397254052058667</v>
       </c>
       <c r="R20">
-        <v>40.09609937207401</v>
+        <v>75.57528646852801</v>
       </c>
       <c r="S20">
-        <v>0.0002333472211692716</v>
+        <v>0.0001259895701710067</v>
       </c>
       <c r="T20">
-        <v>0.0002333472211692716</v>
+        <v>0.0001259895701710067</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H21">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I21">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J21">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>41.497732</v>
       </c>
       <c r="O21">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P21">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q21">
-        <v>1.915945675580889</v>
+        <v>3.385979777385333</v>
       </c>
       <c r="R21">
-        <v>17.243511080228</v>
+        <v>30.473817996468</v>
       </c>
       <c r="S21">
-        <v>0.0001003520406420176</v>
+        <v>5.080209960491958E-05</v>
       </c>
       <c r="T21">
-        <v>0.0001003520406420176</v>
+        <v>5.080209960491959E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H22">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I22">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J22">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N22">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O22">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P22">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q22">
-        <v>1.767321432845667</v>
+        <v>6.239063536808667</v>
       </c>
       <c r="R22">
-        <v>15.905892895611</v>
+        <v>56.15157183127801</v>
       </c>
       <c r="S22">
-        <v>9.256750570585242E-05</v>
+        <v>9.360880692652323E-05</v>
       </c>
       <c r="T22">
-        <v>9.256750570585239E-05</v>
+        <v>9.360880692652326E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H23">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I23">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J23">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N23">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O23">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P23">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q23">
-        <v>0.6758079626802223</v>
+        <v>0.8397638198179999</v>
       </c>
       <c r="R23">
-        <v>6.082271664122</v>
+        <v>7.557874378361999</v>
       </c>
       <c r="S23">
-        <v>3.539698906991352E-05</v>
+        <v>1.259953337699653E-05</v>
       </c>
       <c r="T23">
-        <v>3.539698906991351E-05</v>
+        <v>1.259953337699653E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H24">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I24">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J24">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N24">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O24">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P24">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q24">
-        <v>1.080903952888</v>
+        <v>1.858474375116333</v>
       </c>
       <c r="R24">
-        <v>9.728135575991999</v>
+        <v>16.726269376047</v>
       </c>
       <c r="S24">
-        <v>5.661481888177606E-05</v>
+        <v>2.788392327338641E-05</v>
       </c>
       <c r="T24">
-        <v>5.661481888177604E-05</v>
+        <v>2.788392327338642E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1385096666666667</v>
+        <v>0.244783</v>
       </c>
       <c r="H25">
-        <v>0.415529</v>
+        <v>0.7343489999999999</v>
       </c>
       <c r="I25">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="J25">
-        <v>0.0005807521578527772</v>
+        <v>0.0003694168995537743</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N25">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O25">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P25">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q25">
-        <v>1.192760896946333</v>
+        <v>3.901245054989332</v>
       </c>
       <c r="R25">
-        <v>10.734848072517</v>
+        <v>35.11120549490399</v>
       </c>
       <c r="S25">
-        <v>6.247358238394605E-05</v>
+        <v>5.853296620094177E-05</v>
       </c>
       <c r="T25">
-        <v>6.247358238394605E-05</v>
+        <v>5.853296620094179E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H26">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I26">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J26">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N26">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O26">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P26">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q26">
-        <v>2208.287858129126</v>
+        <v>2154.287832145668</v>
       </c>
       <c r="R26">
-        <v>19874.59072316213</v>
+        <v>19388.59048931101</v>
       </c>
       <c r="S26">
-        <v>0.1156641316675433</v>
+        <v>0.03232220870227474</v>
       </c>
       <c r="T26">
-        <v>0.1156641316675433</v>
+        <v>0.03232220870227474</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H27">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I27">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J27">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>41.497732</v>
       </c>
       <c r="O27">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P27">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q27">
-        <v>949.6843021220018</v>
+        <v>868.6619446179831</v>
       </c>
       <c r="R27">
-        <v>8547.158719098017</v>
+        <v>7817.957501561847</v>
       </c>
       <c r="S27">
-        <v>0.04974188929168817</v>
+        <v>0.01303311110368272</v>
       </c>
       <c r="T27">
-        <v>0.04974188929168816</v>
+        <v>0.01303311110368272</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H28">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I28">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J28">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N28">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O28">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P28">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q28">
-        <v>876.0151412270216</v>
+        <v>1600.611173367501</v>
       </c>
       <c r="R28">
-        <v>7884.136271043193</v>
+        <v>14405.50056030751</v>
       </c>
       <c r="S28">
-        <v>0.04588329835019136</v>
+        <v>0.02401503068661394</v>
       </c>
       <c r="T28">
-        <v>0.04588329835019136</v>
+        <v>0.02401503068661394</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H29">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I29">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J29">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N29">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O29">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P29">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q29">
-        <v>334.9803815350205</v>
+        <v>215.4386383566147</v>
       </c>
       <c r="R29">
-        <v>3014.823433815184</v>
+        <v>1938.947745209532</v>
       </c>
       <c r="S29">
-        <v>0.0175453643026121</v>
+        <v>0.003232368733457869</v>
       </c>
       <c r="T29">
-        <v>0.0175453643026121</v>
+        <v>0.00323236873345787</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H30">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I30">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J30">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N30">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O30">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P30">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q30">
-        <v>535.7758986815361</v>
+        <v>476.7854715180491</v>
       </c>
       <c r="R30">
-        <v>4821.983088133824</v>
+        <v>4291.069243662442</v>
       </c>
       <c r="S30">
-        <v>0.02806248916384429</v>
+        <v>0.007153528552064353</v>
       </c>
       <c r="T30">
-        <v>0.02806248916384429</v>
+        <v>0.007153528552064354</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>68.65562933333334</v>
+        <v>62.79827133333333</v>
       </c>
       <c r="H31">
-        <v>205.966888</v>
+        <v>188.394814</v>
       </c>
       <c r="I31">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="J31">
-        <v>0.2878636982069153</v>
+        <v>0.09477268720988248</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N31">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O31">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P31">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q31">
-        <v>591.2204685404026</v>
+        <v>1000.851552195394</v>
       </c>
       <c r="R31">
-        <v>5320.984216863624</v>
+        <v>9007.663969758543</v>
       </c>
       <c r="S31">
-        <v>0.03096652543103607</v>
+        <v>0.01501643943178885</v>
       </c>
       <c r="T31">
-        <v>0.03096652543103607</v>
+        <v>0.01501643943178886</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H32">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I32">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J32">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>32.16470200000001</v>
+        <v>34.30489066666667</v>
       </c>
       <c r="N32">
-        <v>96.49410600000002</v>
+        <v>102.914672</v>
       </c>
       <c r="O32">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="P32">
-        <v>0.4018017290405418</v>
+        <v>0.3410498283191481</v>
       </c>
       <c r="Q32">
-        <v>2049.188590587672</v>
+        <v>17582.07131073468</v>
       </c>
       <c r="R32">
-        <v>18442.69731528905</v>
+        <v>158238.6417966121</v>
       </c>
       <c r="S32">
-        <v>0.1073309433282682</v>
+        <v>0.2637954733086089</v>
       </c>
       <c r="T32">
-        <v>0.1073309433282682</v>
+        <v>0.2637954733086089</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H33">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I33">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J33">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>41.497732</v>
       </c>
       <c r="O33">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="P33">
-        <v>0.1727966728751393</v>
+        <v>0.1375196956779303</v>
       </c>
       <c r="Q33">
-        <v>881.262933817584</v>
+        <v>7089.524448542733</v>
       </c>
       <c r="R33">
-        <v>7931.366404358257</v>
+        <v>63805.72003688459</v>
       </c>
       <c r="S33">
-        <v>0.04615816350009669</v>
+        <v>0.106368835866025</v>
       </c>
       <c r="T33">
-        <v>0.04615816350009669</v>
+        <v>0.106368835866025</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H34">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I34">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J34">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>12.759553</v>
+        <v>25.48814066666667</v>
       </c>
       <c r="N34">
-        <v>38.278659</v>
+        <v>76.46442200000001</v>
       </c>
       <c r="O34">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="P34">
-        <v>0.1593924438405937</v>
+        <v>0.2533961143618365</v>
       </c>
       <c r="Q34">
-        <v>812.9013733315082</v>
+        <v>13063.27751147192</v>
       </c>
       <c r="R34">
-        <v>7316.112359983574</v>
+        <v>117569.4976032473</v>
       </c>
       <c r="S34">
-        <v>0.04257757027989982</v>
+        <v>0.1959970138442379</v>
       </c>
       <c r="T34">
-        <v>0.04257757027989982</v>
+        <v>0.195997013844238</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H35">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I35">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J35">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>4.879139333333334</v>
+        <v>3.430646</v>
       </c>
       <c r="N35">
-        <v>14.637418</v>
+        <v>10.291938</v>
       </c>
       <c r="O35">
-        <v>0.06095024976022007</v>
+        <v>0.03410654302013726</v>
       </c>
       <c r="P35">
-        <v>0.06095024976022006</v>
+        <v>0.03410654302013727</v>
       </c>
       <c r="Q35">
-        <v>310.846239264216</v>
+        <v>1758.287563134438</v>
       </c>
       <c r="R35">
-        <v>2797.616153377944</v>
+        <v>15824.58806820994</v>
       </c>
       <c r="S35">
-        <v>0.01628128335455196</v>
+        <v>0.02638075410640046</v>
       </c>
       <c r="T35">
-        <v>0.01628128335455196</v>
+        <v>0.02638075410640047</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H36">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I36">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J36">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>7.803816</v>
+        <v>7.592334333333334</v>
       </c>
       <c r="N36">
-        <v>23.411448</v>
+        <v>22.777003</v>
       </c>
       <c r="O36">
-        <v>0.09748533538144531</v>
+        <v>0.07548090871605478</v>
       </c>
       <c r="P36">
-        <v>0.0974853353814453</v>
+        <v>0.0754809087160548</v>
       </c>
       <c r="Q36">
-        <v>497.175155244576</v>
+        <v>3891.251686550754</v>
       </c>
       <c r="R36">
-        <v>4474.576397201185</v>
+        <v>35021.26517895678</v>
       </c>
       <c r="S36">
-        <v>0.02604068686351369</v>
+        <v>0.05838302906835872</v>
       </c>
       <c r="T36">
-        <v>0.02604068686351369</v>
+        <v>0.05838302906835872</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.709236</v>
+        <v>512.5237530000001</v>
       </c>
       <c r="H37">
-        <v>191.127708</v>
+        <v>1537.571259</v>
       </c>
       <c r="I37">
-        <v>0.267124144996993</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="J37">
-        <v>0.2671241449969931</v>
+        <v>0.7734807391890958</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.611390999999999</v>
+        <v>15.93756533333333</v>
       </c>
       <c r="N37">
-        <v>25.834173</v>
+        <v>47.812696</v>
       </c>
       <c r="O37">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="P37">
-        <v>0.1075735691020598</v>
+        <v>0.158446909904893</v>
       </c>
       <c r="Q37">
-        <v>548.625141507276</v>
+        <v>8168.380798322696</v>
       </c>
       <c r="R37">
-        <v>4937.626273565485</v>
+        <v>73515.42718490426</v>
       </c>
       <c r="S37">
-        <v>0.02873549767066266</v>
+        <v>0.1225556329954647</v>
       </c>
       <c r="T37">
-        <v>0.02873549767066266</v>
+        <v>0.1225556329954647</v>
       </c>
     </row>
   </sheetData>
